--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/PTCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="389" documentId="8_{01D6FB42-3B39-4323-A21D-D79BA65E4289}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{D370C5B2-475A-41BA-B00C-729C9956E8D5}"/>
+  <xr:revisionPtr revIDLastSave="437" documentId="8_{01D6FB42-3B39-4323-A21D-D79BA65E4289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{904083F7-C326-4835-82AC-18514BE2B0FE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4080" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="113">
   <si>
     <t>PTCF Peak Time Capacity Factors</t>
   </si>
@@ -430,7 +430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,91 +991,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="8" max="8" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" customWidth="1"/>
+    <col min="2" max="2" width="50.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.59765625" customWidth="1"/>
+    <col min="8" max="8" width="53.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1096,50 +1096,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84909BD0-C874-4508-8686-DCD688B93C48}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+      <selection activeCell="B11" sqref="B11:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.1328125" customWidth="1"/>
+    <col min="2" max="13" width="11.1328125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1147,143 +1147,254 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="15">
+        <v>43101</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43132</v>
+      </c>
+      <c r="D11" s="15">
+        <v>43160</v>
+      </c>
+      <c r="E11" s="15">
+        <v>43191</v>
+      </c>
+      <c r="F11" s="15">
+        <v>43221</v>
+      </c>
+      <c r="G11" s="15">
+        <v>43252</v>
+      </c>
+      <c r="H11" s="15">
+        <v>43282</v>
+      </c>
+      <c r="I11" s="15">
+        <v>43313</v>
+      </c>
+      <c r="J11" s="15">
+        <v>43344</v>
+      </c>
+      <c r="K11" s="15">
+        <v>43374</v>
+      </c>
+      <c r="L11" s="15">
+        <v>43405</v>
+      </c>
+      <c r="M11" s="15">
+        <v>43435</v>
+      </c>
+      <c r="P11" s="15">
         <v>43831</v>
       </c>
-      <c r="C11" s="15">
+      <c r="Q11" s="15">
         <v>43862</v>
       </c>
-      <c r="D11" s="15">
+      <c r="R11" s="15">
         <v>43891</v>
       </c>
-      <c r="E11" s="15">
+      <c r="S11" s="15">
         <v>43922</v>
       </c>
-      <c r="F11" s="15">
+      <c r="T11" s="15">
         <v>43952</v>
       </c>
-      <c r="G11" s="15">
+      <c r="U11" s="15">
         <v>43983</v>
       </c>
-      <c r="H11" s="15">
+      <c r="V11" s="15">
         <v>44013</v>
       </c>
-      <c r="I11" s="15">
+      <c r="W11" s="15">
         <v>44044</v>
       </c>
-      <c r="J11" s="15">
+      <c r="X11" s="15">
         <v>44075</v>
       </c>
-      <c r="K11" s="15">
+      <c r="Y11" s="15">
         <v>44105</v>
       </c>
-      <c r="L11" s="15">
+      <c r="Z11" s="15">
         <v>44136</v>
       </c>
-      <c r="M11" s="15">
+      <c r="AA11" s="15">
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="13">
-        <v>14505735</v>
+        <v>14612989</v>
       </c>
       <c r="C13" s="13">
-        <v>12994752</v>
+        <v>12188411</v>
       </c>
       <c r="D13" s="13">
-        <v>13311185</v>
+        <v>12860259</v>
       </c>
       <c r="E13" s="13">
-        <v>12054674</v>
+        <v>11715642</v>
       </c>
       <c r="F13" s="13">
-        <v>12344203</v>
+        <v>12189386</v>
       </c>
       <c r="G13" s="13">
-        <v>12996276</v>
+        <v>12338008</v>
       </c>
       <c r="H13" s="13">
-        <v>15189339</v>
+        <v>13697316</v>
       </c>
       <c r="I13" s="13">
-        <v>13296636</v>
+        <v>13571423</v>
       </c>
       <c r="J13" s="13">
-        <v>11448876</v>
+        <v>12294172</v>
       </c>
       <c r="K13" s="13">
-        <v>11943619</v>
+        <v>12624440</v>
       </c>
       <c r="L13" s="13">
-        <v>12085624</v>
+        <v>12973386</v>
       </c>
       <c r="M13" s="13">
-        <v>13137329</v>
+        <v>13561183</v>
       </c>
       <c r="N13" s="13">
         <f>SUM(B13:M13)</f>
-        <v>155308248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>154626615</v>
+      </c>
+      <c r="P13" s="13">
+        <v>14505735</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>12994752</v>
+      </c>
+      <c r="R13" s="13">
+        <v>13311185</v>
+      </c>
+      <c r="S13" s="13">
+        <v>12054674</v>
+      </c>
+      <c r="T13" s="13">
+        <v>12344203</v>
+      </c>
+      <c r="U13" s="13">
+        <v>12996276</v>
+      </c>
+      <c r="V13" s="13">
+        <v>15189339</v>
+      </c>
+      <c r="W13" s="13">
+        <v>13296636</v>
+      </c>
+      <c r="X13" s="13">
+        <v>11448876</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>11943619</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>12085624</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>13137329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="13">
-        <v>3473891</v>
+        <v>3579263</v>
       </c>
       <c r="C14" s="13">
-        <v>3314715</v>
+        <v>3176001</v>
       </c>
       <c r="D14" s="13">
-        <v>3387499</v>
+        <v>3121381</v>
       </c>
       <c r="E14" s="13">
-        <v>3209776</v>
+        <v>2805590</v>
       </c>
       <c r="F14" s="13">
-        <v>3412556</v>
+        <v>3529145</v>
       </c>
       <c r="G14" s="13">
-        <v>3483971</v>
+        <v>3256394</v>
       </c>
       <c r="H14" s="13">
-        <v>3499122</v>
+        <v>2893069</v>
       </c>
       <c r="I14" s="13">
-        <v>2821456</v>
+        <v>2675601</v>
       </c>
       <c r="J14" s="13">
-        <v>2725843</v>
+        <v>2707305</v>
       </c>
       <c r="K14" s="13">
-        <v>3068202</v>
+        <v>3145572</v>
       </c>
       <c r="L14" s="13">
-        <v>3176750</v>
+        <v>3328991</v>
       </c>
       <c r="M14" s="13">
-        <v>3448917</v>
+        <v>3469601</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" ref="N14:N23" si="0">SUM(B14:M14)</f>
-        <v>39022698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>37687913</v>
+      </c>
+      <c r="P14" s="13">
+        <v>3473891</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>3314715</v>
+      </c>
+      <c r="R14" s="13">
+        <v>3387499</v>
+      </c>
+      <c r="S14" s="13">
+        <v>3209776</v>
+      </c>
+      <c r="T14" s="13">
+        <v>3412556</v>
+      </c>
+      <c r="U14" s="13">
+        <v>3483971</v>
+      </c>
+      <c r="V14" s="13">
+        <v>3499122</v>
+      </c>
+      <c r="W14" s="13">
+        <v>2821456</v>
+      </c>
+      <c r="X14" s="13">
+        <v>2725843</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>3068202</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>3176750</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>3448917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1327,53 +1438,125 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="13">
-        <v>8403186</v>
+        <v>8012753</v>
       </c>
       <c r="C16" s="13">
-        <v>6974406</v>
+        <v>6807599</v>
       </c>
       <c r="D16" s="13">
-        <v>7446767</v>
+        <v>7565383</v>
       </c>
       <c r="E16" s="13">
-        <v>7060822</v>
+        <v>6827111</v>
       </c>
       <c r="F16" s="13">
-        <v>6987629</v>
+        <v>7139208</v>
       </c>
       <c r="G16" s="13">
-        <v>7479726</v>
+        <v>7183280</v>
       </c>
       <c r="H16" s="13">
-        <v>8565439</v>
+        <v>8026040</v>
       </c>
       <c r="I16" s="13">
-        <v>7713551</v>
+        <v>8000658</v>
       </c>
       <c r="J16" s="13">
-        <v>6647669</v>
+        <v>7412429</v>
       </c>
       <c r="K16" s="13">
-        <v>6955185</v>
+        <v>7847158</v>
       </c>
       <c r="L16" s="13">
-        <v>6787649</v>
+        <v>7521960</v>
       </c>
       <c r="M16" s="13">
-        <v>6834743</v>
+        <v>7811691</v>
       </c>
       <c r="N16" s="13">
         <f t="shared" si="0"/>
-        <v>87856772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>90155270</v>
+      </c>
+      <c r="P16" s="13">
+        <v>8403186</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>6974406</v>
+      </c>
+      <c r="R16" s="13">
+        <v>7446767</v>
+      </c>
+      <c r="S16" s="13">
+        <v>7060822</v>
+      </c>
+      <c r="T16" s="13">
+        <v>6987629</v>
+      </c>
+      <c r="U16" s="13">
+        <v>7479726</v>
+      </c>
+      <c r="V16" s="13">
+        <v>8565439</v>
+      </c>
+      <c r="W16" s="13">
+        <v>7713551</v>
+      </c>
+      <c r="X16" s="13">
+        <v>6647669</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>6955185</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>6787649</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>6834743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1417,8 +1600,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1462,53 +1681,125 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="13">
-        <v>1255227</v>
+        <v>1411911</v>
       </c>
       <c r="C19" s="13">
-        <v>1093680</v>
+        <v>970140</v>
       </c>
       <c r="D19" s="13">
-        <v>883497</v>
+        <v>878687</v>
       </c>
       <c r="E19" s="13">
-        <v>457524</v>
+        <v>892664</v>
       </c>
       <c r="F19" s="13">
-        <v>664247</v>
+        <v>568814</v>
       </c>
       <c r="G19" s="13">
-        <v>1008240</v>
+        <v>910531</v>
       </c>
       <c r="H19" s="13">
-        <v>2242564</v>
+        <v>1952069</v>
       </c>
       <c r="I19" s="13">
-        <v>1859467</v>
+        <v>2011781</v>
       </c>
       <c r="J19" s="13">
-        <v>901599</v>
+        <v>1310788</v>
       </c>
       <c r="K19" s="13">
-        <v>837773</v>
+        <v>551096</v>
       </c>
       <c r="L19" s="13">
-        <v>666441</v>
+        <v>839900</v>
       </c>
       <c r="M19" s="13">
-        <v>1321468</v>
+        <v>1054706</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="0"/>
-        <v>13191727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>13353087</v>
+      </c>
+      <c r="P19" s="13">
+        <v>1255227</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1093680</v>
+      </c>
+      <c r="R19" s="13">
+        <v>883497</v>
+      </c>
+      <c r="S19" s="13">
+        <v>457524</v>
+      </c>
+      <c r="T19" s="13">
+        <v>664247</v>
+      </c>
+      <c r="U19" s="13">
+        <v>1008240</v>
+      </c>
+      <c r="V19" s="13">
+        <v>2242564</v>
+      </c>
+      <c r="W19" s="13">
+        <v>1859467</v>
+      </c>
+      <c r="X19" s="13">
+        <v>901599</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>837773</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>666441</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>1321468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1552,98 +1843,206 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="13">
-        <v>1304558</v>
+        <v>1551780</v>
       </c>
       <c r="C21" s="13">
-        <v>1492047</v>
+        <v>1151966</v>
       </c>
       <c r="D21" s="13">
-        <v>1380864</v>
+        <v>1115147</v>
       </c>
       <c r="E21" s="13">
-        <v>1085967</v>
+        <v>999782</v>
       </c>
       <c r="F21" s="13">
-        <v>994600</v>
+        <v>678721</v>
       </c>
       <c r="G21" s="13">
-        <v>693531</v>
+        <v>703201</v>
       </c>
       <c r="H21" s="13">
-        <v>541831</v>
+        <v>527066</v>
       </c>
       <c r="I21" s="13">
-        <v>609401</v>
+        <v>571071</v>
       </c>
       <c r="J21" s="13">
-        <v>907150</v>
+        <v>649764</v>
       </c>
       <c r="K21" s="13">
-        <v>912652</v>
+        <v>940898</v>
       </c>
       <c r="L21" s="13">
-        <v>1315766</v>
+        <v>1199746</v>
       </c>
       <c r="M21" s="13">
-        <v>1459928</v>
+        <v>1164611</v>
       </c>
       <c r="N21" s="13">
         <f t="shared" si="0"/>
-        <v>12698295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>11253753</v>
+      </c>
+      <c r="P21" s="13">
+        <v>1304558</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>1492047</v>
+      </c>
+      <c r="R21" s="13">
+        <v>1380864</v>
+      </c>
+      <c r="S21" s="13">
+        <v>1085967</v>
+      </c>
+      <c r="T21" s="13">
+        <v>994600</v>
+      </c>
+      <c r="U21" s="13">
+        <v>693531</v>
+      </c>
+      <c r="V21" s="13">
+        <v>541831</v>
+      </c>
+      <c r="W21" s="13">
+        <v>609401</v>
+      </c>
+      <c r="X21" s="13">
+        <v>907150</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>912652</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>1315766</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>1459928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="13">
-        <v>68873</v>
+        <v>57282</v>
       </c>
       <c r="C22" s="13">
-        <v>119904</v>
+        <v>82705</v>
       </c>
       <c r="D22" s="13">
-        <v>212558</v>
+        <v>179661</v>
       </c>
       <c r="E22" s="13">
-        <v>240585</v>
+        <v>190495</v>
       </c>
       <c r="F22" s="13">
-        <v>285171</v>
+        <v>273498</v>
       </c>
       <c r="G22" s="13">
-        <v>330808</v>
+        <v>284602</v>
       </c>
       <c r="H22" s="13">
-        <v>340383</v>
+        <v>299072</v>
       </c>
       <c r="I22" s="13">
-        <v>292761</v>
+        <v>312312</v>
       </c>
       <c r="J22" s="13">
-        <v>266520</v>
+        <v>213886</v>
       </c>
       <c r="K22" s="13">
-        <v>169807</v>
+        <v>139716</v>
       </c>
       <c r="L22" s="13">
-        <v>139018</v>
+        <v>82789</v>
       </c>
       <c r="M22" s="13">
-        <v>72273</v>
+        <v>60574</v>
       </c>
       <c r="N22" s="13">
         <f t="shared" si="0"/>
-        <v>2538661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>2176592</v>
+      </c>
+      <c r="P22" s="13">
+        <v>68873</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>119904</v>
+      </c>
+      <c r="R22" s="13">
+        <v>212558</v>
+      </c>
+      <c r="S22" s="13">
+        <v>240585</v>
+      </c>
+      <c r="T22" s="13">
+        <v>285171</v>
+      </c>
+      <c r="U22" s="13">
+        <v>330808</v>
+      </c>
+      <c r="V22" s="13">
+        <v>340383</v>
+      </c>
+      <c r="W22" s="13">
+        <v>292761</v>
+      </c>
+      <c r="X22" s="13">
+        <v>266520</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>169807</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>139018</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>72273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1672,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1685,15 +2084,51 @@
       </c>
       <c r="N23" s="13">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1701,12 +2136,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1714,7 +2149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1722,7 +2157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1730,7 +2165,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1738,7 +2173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1746,7 +2181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1754,7 +2189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1762,7 +2197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="405.95">
+    <row r="38" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1770,7 +2205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1778,7 +2213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1786,7 +2221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>11</v>
       </c>
@@ -1794,12 +2229,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1811,194 +2246,319 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7888E1-0730-4B44-98C1-05AAC5F6C992}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.86328125" customWidth="1"/>
+    <col min="2" max="13" width="11.86328125" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="15">
+        <v>43101</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43132</v>
+      </c>
+      <c r="D11" s="15">
+        <v>43160</v>
+      </c>
+      <c r="E11" s="15">
+        <v>43191</v>
+      </c>
+      <c r="F11" s="15">
+        <v>43221</v>
+      </c>
+      <c r="G11" s="15">
+        <v>43252</v>
+      </c>
+      <c r="H11" s="15">
+        <v>43282</v>
+      </c>
+      <c r="I11" s="15">
+        <v>43313</v>
+      </c>
+      <c r="J11" s="15">
+        <v>43344</v>
+      </c>
+      <c r="K11" s="15">
+        <v>43374</v>
+      </c>
+      <c r="L11" s="15">
+        <v>43405</v>
+      </c>
+      <c r="M11" s="15">
+        <v>43435</v>
+      </c>
+      <c r="P11" s="15">
         <v>43831</v>
       </c>
-      <c r="C11" s="15">
+      <c r="Q11" s="15">
         <v>43862</v>
       </c>
-      <c r="D11" s="15">
+      <c r="R11" s="15">
         <v>43891</v>
       </c>
-      <c r="E11" s="15">
+      <c r="S11" s="15">
         <v>43922</v>
       </c>
-      <c r="F11" s="15">
+      <c r="T11" s="15">
         <v>43952</v>
       </c>
-      <c r="G11" s="15">
+      <c r="U11" s="15">
         <v>43983</v>
       </c>
-      <c r="H11" s="15">
+      <c r="V11" s="15">
         <v>44013</v>
       </c>
-      <c r="I11" s="15">
+      <c r="W11" s="15">
         <v>44044</v>
       </c>
-      <c r="J11" s="15">
+      <c r="X11" s="15">
         <v>44075</v>
       </c>
-      <c r="K11" s="15">
+      <c r="Y11" s="15">
         <v>44105</v>
       </c>
-      <c r="L11" s="15">
+      <c r="Z11" s="15">
         <v>44136</v>
       </c>
-      <c r="M11" s="15">
+      <c r="AA11" s="15">
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="13">
-        <v>7022647</v>
+        <v>7132104</v>
       </c>
       <c r="C13" s="13">
-        <v>6588920</v>
+        <v>6281655</v>
       </c>
       <c r="D13" s="13">
-        <v>6585766</v>
+        <v>6716343</v>
       </c>
       <c r="E13" s="13">
-        <v>5915007</v>
+        <v>5799825</v>
       </c>
       <c r="F13" s="13">
-        <v>5210225</v>
+        <v>5867387</v>
       </c>
       <c r="G13" s="13">
-        <v>5747883</v>
+        <v>5697881</v>
       </c>
       <c r="H13" s="13">
-        <v>5801065</v>
+        <v>6849537</v>
       </c>
       <c r="I13" s="13">
-        <v>6126952</v>
+        <v>7035765</v>
       </c>
       <c r="J13" s="13">
-        <v>6111056</v>
+        <v>6576590</v>
       </c>
       <c r="K13" s="13">
-        <v>6448604</v>
+        <v>6717674</v>
       </c>
       <c r="L13" s="13">
-        <v>6905688</v>
+        <v>7098436</v>
       </c>
       <c r="M13" s="13">
-        <v>6990709</v>
+        <v>7534956</v>
       </c>
       <c r="N13" s="13">
         <f>SUM(B13:M13)</f>
+        <v>79308153</v>
+      </c>
+      <c r="P13" s="13">
+        <v>7022647</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>6588920</v>
+      </c>
+      <c r="R13" s="13">
+        <v>6585766</v>
+      </c>
+      <c r="S13" s="13">
+        <v>5915007</v>
+      </c>
+      <c r="T13" s="13">
+        <v>5210225</v>
+      </c>
+      <c r="U13" s="13">
+        <v>5747883</v>
+      </c>
+      <c r="V13" s="13">
+        <v>5801065</v>
+      </c>
+      <c r="W13" s="13">
+        <v>6126952</v>
+      </c>
+      <c r="X13" s="13">
+        <v>6111056</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>6448604</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>6905688</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>6990709</v>
+      </c>
+      <c r="AB13" s="13">
+        <f>SUM(P13:AA13)</f>
         <v>75454522</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="13">
-        <v>138165</v>
+        <v>103695</v>
       </c>
       <c r="C14" s="13">
-        <v>106008</v>
+        <v>102802</v>
       </c>
       <c r="D14" s="13">
-        <v>100560</v>
+        <v>109119</v>
       </c>
       <c r="E14" s="13">
-        <v>121140</v>
+        <v>129920</v>
       </c>
       <c r="F14" s="13">
-        <v>220231</v>
+        <v>229431</v>
       </c>
       <c r="G14" s="13">
-        <v>386991</v>
+        <v>234825</v>
       </c>
       <c r="H14" s="13">
-        <v>440949</v>
+        <v>300957</v>
       </c>
       <c r="I14" s="13">
-        <v>290546</v>
+        <v>243550</v>
       </c>
       <c r="J14" s="13">
-        <v>194545</v>
+        <v>169452</v>
       </c>
       <c r="K14" s="13">
-        <v>162931</v>
+        <v>127016</v>
       </c>
       <c r="L14" s="13">
-        <v>136841</v>
+        <v>122492</v>
       </c>
       <c r="M14" s="13">
-        <v>135429</v>
+        <v>124332</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" ref="N14:N23" si="0">SUM(B14:M14)</f>
+        <v>1997591</v>
+      </c>
+      <c r="P14" s="13">
+        <v>138165</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>106008</v>
+      </c>
+      <c r="R14" s="13">
+        <v>100560</v>
+      </c>
+      <c r="S14" s="13">
+        <v>121140</v>
+      </c>
+      <c r="T14" s="13">
+        <v>220231</v>
+      </c>
+      <c r="U14" s="13">
+        <v>386991</v>
+      </c>
+      <c r="V14" s="13">
+        <v>440949</v>
+      </c>
+      <c r="W14" s="13">
+        <v>290546</v>
+      </c>
+      <c r="X14" s="13">
+        <v>194545</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>162931</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>136841</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>135429</v>
+      </c>
+      <c r="AB14" s="13">
+        <f t="shared" ref="AB14:AB23" si="1">SUM(P14:AA14)</f>
         <v>2434336</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2042,8 +2602,48 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2087,8 +2687,48 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2132,8 +2772,48 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2177,53 +2857,133 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="13">
-        <v>6407865</v>
+        <v>6526469</v>
       </c>
       <c r="C19" s="13">
-        <v>5988859</v>
+        <v>5777573</v>
       </c>
       <c r="D19" s="13">
-        <v>6063848</v>
+        <v>6317675</v>
       </c>
       <c r="E19" s="13">
-        <v>5437114</v>
+        <v>5334406</v>
       </c>
       <c r="F19" s="13">
-        <v>4636730</v>
+        <v>5323682</v>
       </c>
       <c r="G19" s="13">
-        <v>4985448</v>
+        <v>5101974</v>
       </c>
       <c r="H19" s="13">
-        <v>5057221</v>
+        <v>6289361</v>
       </c>
       <c r="I19" s="13">
-        <v>5522706</v>
+        <v>6518944</v>
       </c>
       <c r="J19" s="13">
-        <v>5569188</v>
+        <v>6201412</v>
       </c>
       <c r="K19" s="13">
-        <v>5818587</v>
+        <v>6207969</v>
       </c>
       <c r="L19" s="13">
-        <v>6017432</v>
+        <v>6498795</v>
       </c>
       <c r="M19" s="13">
-        <v>6165806</v>
+        <v>6860138</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="0"/>
+        <v>72958398</v>
+      </c>
+      <c r="P19" s="13">
+        <v>6407865</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>5988859</v>
+      </c>
+      <c r="R19" s="13">
+        <v>6063848</v>
+      </c>
+      <c r="S19" s="13">
+        <v>5437114</v>
+      </c>
+      <c r="T19" s="13">
+        <v>4636730</v>
+      </c>
+      <c r="U19" s="13">
+        <v>4985448</v>
+      </c>
+      <c r="V19" s="13">
+        <v>5057221</v>
+      </c>
+      <c r="W19" s="13">
+        <v>5522706</v>
+      </c>
+      <c r="X19" s="13">
+        <v>5569188</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>5818587</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>6017432</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>6165806</v>
+      </c>
+      <c r="AB19" s="13">
+        <f t="shared" si="1"/>
         <v>67670804</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2267,148 +3027,308 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="13">
-        <v>471870</v>
+        <v>481948</v>
       </c>
       <c r="C21" s="13">
-        <v>487479</v>
+        <v>381701</v>
       </c>
       <c r="D21" s="13">
-        <v>413205</v>
+        <v>264855</v>
       </c>
       <c r="E21" s="13">
-        <v>349834</v>
+        <v>315217</v>
       </c>
       <c r="F21" s="13">
-        <v>344656</v>
+        <v>295582</v>
       </c>
       <c r="G21" s="13">
-        <v>366659</v>
+        <v>343537</v>
       </c>
       <c r="H21" s="13">
-        <v>298975</v>
+        <v>240091</v>
       </c>
       <c r="I21" s="13">
-        <v>309795</v>
+        <v>255374</v>
       </c>
       <c r="J21" s="13">
-        <v>344593</v>
+        <v>189053</v>
       </c>
       <c r="K21" s="13">
-        <v>465677</v>
+        <v>362583</v>
       </c>
       <c r="L21" s="13">
-        <v>747766</v>
+        <v>458391</v>
       </c>
       <c r="M21" s="13">
-        <v>685156</v>
+        <v>530891</v>
       </c>
       <c r="N21" s="13">
         <f t="shared" si="0"/>
+        <v>4119223</v>
+      </c>
+      <c r="P21" s="13">
+        <v>471870</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>487479</v>
+      </c>
+      <c r="R21" s="13">
+        <v>413205</v>
+      </c>
+      <c r="S21" s="13">
+        <v>349834</v>
+      </c>
+      <c r="T21" s="13">
+        <v>344656</v>
+      </c>
+      <c r="U21" s="13">
+        <v>366659</v>
+      </c>
+      <c r="V21" s="13">
+        <v>298975</v>
+      </c>
+      <c r="W21" s="13">
+        <v>309795</v>
+      </c>
+      <c r="X21" s="13">
+        <v>344593</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>465677</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>747766</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>685156</v>
+      </c>
+      <c r="AB21" s="13">
+        <f t="shared" si="1"/>
         <v>5285665</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="C22" s="13">
-        <v>1397</v>
+        <v>1436</v>
       </c>
       <c r="D22" s="13">
-        <v>2106</v>
+        <v>2819</v>
       </c>
       <c r="E22" s="13">
-        <v>2527</v>
+        <v>2944</v>
       </c>
       <c r="F22" s="13">
-        <v>2988</v>
+        <v>3293</v>
       </c>
       <c r="G22" s="13">
-        <v>3225</v>
+        <v>3206</v>
       </c>
       <c r="H22" s="13">
-        <v>3619</v>
+        <v>3677</v>
       </c>
       <c r="I22" s="13">
-        <v>3454</v>
+        <v>2773</v>
       </c>
       <c r="J22" s="13">
-        <v>2730</v>
+        <v>1898</v>
       </c>
       <c r="K22" s="13">
-        <v>1409</v>
+        <v>1740</v>
       </c>
       <c r="L22">
-        <v>712</v>
-      </c>
-      <c r="M22" s="13">
-        <v>1601</v>
+        <v>648</v>
+      </c>
+      <c r="M22">
+        <v>493</v>
       </c>
       <c r="N22" s="13">
         <f t="shared" si="0"/>
+        <v>25547</v>
+      </c>
+      <c r="P22">
+        <v>576</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>1397</v>
+      </c>
+      <c r="R22" s="13">
+        <v>2106</v>
+      </c>
+      <c r="S22" s="13">
+        <v>2527</v>
+      </c>
+      <c r="T22" s="13">
+        <v>2988</v>
+      </c>
+      <c r="U22" s="13">
+        <v>3225</v>
+      </c>
+      <c r="V22" s="13">
+        <v>3619</v>
+      </c>
+      <c r="W22" s="13">
+        <v>3454</v>
+      </c>
+      <c r="X22" s="13">
+        <v>2730</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>1409</v>
+      </c>
+      <c r="Z22">
+        <v>712</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>1601</v>
+      </c>
+      <c r="AB22" s="13">
+        <f t="shared" si="1"/>
         <v>26344</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="13">
-        <v>4171</v>
+        <v>19372</v>
       </c>
       <c r="C23" s="13">
-        <v>5177</v>
+        <v>18143</v>
       </c>
       <c r="D23" s="13">
-        <v>6047</v>
+        <v>21875</v>
       </c>
       <c r="E23" s="13">
-        <v>4392</v>
+        <v>17338</v>
       </c>
       <c r="F23" s="13">
-        <v>5620</v>
+        <v>15399</v>
       </c>
       <c r="G23" s="13">
-        <v>5560</v>
-      </c>
-      <c r="H23">
-        <v>301</v>
-      </c>
-      <c r="I23">
-        <v>451</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
+        <v>14339</v>
+      </c>
+      <c r="H23" s="13">
+        <v>15451</v>
+      </c>
+      <c r="I23" s="13">
+        <v>15124</v>
+      </c>
+      <c r="J23" s="13">
+        <v>14775</v>
+      </c>
+      <c r="K23" s="13">
+        <v>18366</v>
       </c>
       <c r="L23" s="13">
-        <v>2937</v>
+        <v>18110</v>
       </c>
       <c r="M23" s="13">
-        <v>2717</v>
+        <v>19102</v>
       </c>
       <c r="N23" s="13">
         <f t="shared" si="0"/>
+        <v>207394</v>
+      </c>
+      <c r="P23" s="13">
+        <v>4171</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>5177</v>
+      </c>
+      <c r="R23" s="13">
+        <v>6047</v>
+      </c>
+      <c r="S23" s="13">
+        <v>4392</v>
+      </c>
+      <c r="T23" s="13">
+        <v>5620</v>
+      </c>
+      <c r="U23" s="13">
+        <v>5560</v>
+      </c>
+      <c r="V23">
+        <v>301</v>
+      </c>
+      <c r="W23">
+        <v>451</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>2937</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>2717</v>
+      </c>
+      <c r="AB23" s="13">
+        <f t="shared" si="1"/>
         <v>37373</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2416,12 +3336,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2429,7 +3349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2437,7 +3357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2445,7 +3365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2453,7 +3373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2461,7 +3381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6</v>
       </c>
@@ -2469,7 +3389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2477,7 +3397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="362.45">
+    <row r="38" spans="1:2" ht="342" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>8</v>
       </c>
@@ -2485,7 +3405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2493,7 +3413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2501,7 +3421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>11</v>
       </c>
@@ -2509,12 +3429,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2526,194 +3446,317 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F00FAA1-1F6C-4E2B-AB41-2627005CFD39}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:N23"/>
+      <selection activeCell="B11" sqref="B11:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" customWidth="1"/>
+    <col min="2" max="13" width="11.265625" customWidth="1"/>
+    <col min="14" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="15">
+        <v>43101</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43132</v>
+      </c>
+      <c r="D11" s="15">
+        <v>43160</v>
+      </c>
+      <c r="E11" s="15">
+        <v>43191</v>
+      </c>
+      <c r="F11" s="15">
+        <v>43221</v>
+      </c>
+      <c r="G11" s="15">
+        <v>43252</v>
+      </c>
+      <c r="H11" s="15">
+        <v>43282</v>
+      </c>
+      <c r="I11" s="15">
+        <v>43313</v>
+      </c>
+      <c r="J11" s="15">
+        <v>43344</v>
+      </c>
+      <c r="K11" s="15">
+        <v>43374</v>
+      </c>
+      <c r="L11" s="15">
+        <v>43405</v>
+      </c>
+      <c r="M11" s="15">
+        <v>43435</v>
+      </c>
+      <c r="P11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="15">
         <v>43831</v>
       </c>
-      <c r="C11" s="15">
+      <c r="R11" s="15">
         <v>43862</v>
       </c>
-      <c r="D11" s="15">
+      <c r="S11" s="15">
         <v>43891</v>
       </c>
-      <c r="E11" s="15">
+      <c r="T11" s="15">
         <v>43922</v>
       </c>
-      <c r="F11" s="15">
+      <c r="U11" s="15">
         <v>43952</v>
       </c>
-      <c r="G11" s="15">
+      <c r="V11" s="15">
         <v>43983</v>
       </c>
-      <c r="H11" s="15">
+      <c r="W11" s="15">
         <v>44013</v>
       </c>
-      <c r="I11" s="15">
+      <c r="X11" s="15">
         <v>44044</v>
       </c>
-      <c r="J11" s="15">
+      <c r="Y11" s="15">
         <v>44075</v>
       </c>
-      <c r="K11" s="15">
+      <c r="Z11" s="15">
         <v>44105</v>
       </c>
-      <c r="L11" s="15">
+      <c r="AA11" s="15">
         <v>44136</v>
       </c>
-      <c r="M11" s="15">
+      <c r="AB11" s="15">
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="Q12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="13">
-        <v>6288988</v>
+        <v>6551314</v>
       </c>
       <c r="C13" s="13">
-        <v>5779052</v>
+        <v>5896355</v>
       </c>
       <c r="D13" s="13">
-        <v>6381012</v>
+        <v>6054522</v>
       </c>
       <c r="E13" s="13">
-        <v>5097261</v>
+        <v>4843039</v>
       </c>
       <c r="F13" s="13">
-        <v>5268587</v>
+        <v>5087534</v>
       </c>
       <c r="G13" s="13">
-        <v>5134813</v>
+        <v>5087677</v>
       </c>
       <c r="H13" s="13">
-        <v>6137129</v>
+        <v>6062353</v>
       </c>
       <c r="I13" s="13">
-        <v>6941522</v>
+        <v>5722874</v>
       </c>
       <c r="J13" s="13">
-        <v>5298875</v>
+        <v>4952536</v>
       </c>
       <c r="K13" s="13">
-        <v>5907967</v>
+        <v>5806449</v>
       </c>
       <c r="L13" s="13">
-        <v>6740700</v>
+        <v>5357036</v>
       </c>
       <c r="M13" s="13">
-        <v>7644951</v>
+        <v>6035647</v>
       </c>
       <c r="N13" s="13">
         <f>SUM(B13:M13)</f>
-        <v>72620857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>67457336</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>6288988</v>
+      </c>
+      <c r="R13" s="13">
+        <v>5779052</v>
+      </c>
+      <c r="S13" s="13">
+        <v>6381012</v>
+      </c>
+      <c r="T13" s="13">
+        <v>5097261</v>
+      </c>
+      <c r="U13" s="13">
+        <v>5268587</v>
+      </c>
+      <c r="V13" s="13">
+        <v>5134813</v>
+      </c>
+      <c r="W13" s="13">
+        <v>6137129</v>
+      </c>
+      <c r="X13" s="13">
+        <v>6941522</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>5298875</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>5907967</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>6740700</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>7644951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="13">
-        <v>5628653</v>
+        <v>5905363</v>
       </c>
       <c r="C14" s="13">
-        <v>5081034</v>
+        <v>5307636</v>
       </c>
       <c r="D14" s="13">
-        <v>5670347</v>
+        <v>5475802</v>
       </c>
       <c r="E14" s="13">
-        <v>4387224</v>
+        <v>4234580</v>
       </c>
       <c r="F14" s="13">
-        <v>4666012</v>
+        <v>4536107</v>
       </c>
       <c r="G14" s="13">
-        <v>4469389</v>
+        <v>4607841</v>
       </c>
       <c r="H14" s="13">
-        <v>5503325</v>
+        <v>5484785</v>
       </c>
       <c r="I14" s="13">
-        <v>6096643</v>
+        <v>5163032</v>
       </c>
       <c r="J14" s="13">
-        <v>4544210</v>
+        <v>4376089</v>
       </c>
       <c r="K14" s="13">
-        <v>5171686</v>
+        <v>5210615</v>
       </c>
       <c r="L14" s="13">
-        <v>5868136</v>
+        <v>4767222</v>
       </c>
       <c r="M14" s="13">
-        <v>6776649</v>
+        <v>5364967</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" ref="N14:N23" si="0">SUM(B14:M14)</f>
-        <v>63863308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>60434039</v>
+      </c>
+      <c r="P14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>5628653</v>
+      </c>
+      <c r="R14" s="13">
+        <v>5081034</v>
+      </c>
+      <c r="S14" s="13">
+        <v>5670347</v>
+      </c>
+      <c r="T14" s="13">
+        <v>4387224</v>
+      </c>
+      <c r="U14" s="13">
+        <v>4666012</v>
+      </c>
+      <c r="V14" s="13">
+        <v>4469389</v>
+      </c>
+      <c r="W14" s="13">
+        <v>5503325</v>
+      </c>
+      <c r="X14" s="13">
+        <v>6096643</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>4544210</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>5171686</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>5868136</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>6776649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2757,8 +3800,47 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2802,8 +3884,47 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2847,8 +3968,47 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2892,53 +4052,131 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="13">
-        <v>566665</v>
+        <v>536339</v>
       </c>
       <c r="C19" s="13">
-        <v>498841</v>
+        <v>477409</v>
       </c>
       <c r="D19" s="13">
-        <v>547172</v>
+        <v>477374</v>
       </c>
       <c r="E19" s="13">
-        <v>518689</v>
+        <v>480987</v>
       </c>
       <c r="F19" s="13">
-        <v>387194</v>
+        <v>430984</v>
       </c>
       <c r="G19" s="13">
-        <v>408399</v>
+        <v>375340</v>
       </c>
       <c r="H19" s="13">
-        <v>358363</v>
+        <v>487936</v>
       </c>
       <c r="I19" s="13">
-        <v>466087</v>
+        <v>437205</v>
       </c>
       <c r="J19" s="13">
-        <v>474675</v>
+        <v>472076</v>
       </c>
       <c r="K19" s="13">
-        <v>487247</v>
+        <v>436071</v>
       </c>
       <c r="L19" s="13">
-        <v>506077</v>
+        <v>460917</v>
       </c>
       <c r="M19" s="13">
-        <v>521755</v>
+        <v>526740</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="0"/>
-        <v>5741164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>5599378</v>
+      </c>
+      <c r="P19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>566665</v>
+      </c>
+      <c r="R19" s="13">
+        <v>498841</v>
+      </c>
+      <c r="S19" s="13">
+        <v>547172</v>
+      </c>
+      <c r="T19" s="13">
+        <v>518689</v>
+      </c>
+      <c r="U19" s="13">
+        <v>387194</v>
+      </c>
+      <c r="V19" s="13">
+        <v>408399</v>
+      </c>
+      <c r="W19" s="13">
+        <v>358363</v>
+      </c>
+      <c r="X19" s="13">
+        <v>466087</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>474675</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>487247</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>506077</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>521755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2982,98 +4220,215 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="13">
-        <v>93616</v>
+        <v>109544</v>
       </c>
       <c r="C21" s="13">
-        <v>199098</v>
+        <v>111226</v>
       </c>
       <c r="D21" s="13">
-        <v>163391</v>
+        <v>101237</v>
       </c>
       <c r="E21" s="13">
-        <v>191208</v>
+        <v>127336</v>
       </c>
       <c r="F21" s="13">
-        <v>215163</v>
+        <v>120260</v>
       </c>
       <c r="G21" s="13">
-        <v>256782</v>
+        <v>104296</v>
       </c>
       <c r="H21" s="13">
-        <v>275176</v>
+        <v>89414</v>
       </c>
       <c r="I21" s="13">
-        <v>378562</v>
+        <v>122447</v>
       </c>
       <c r="J21" s="13">
-        <v>279799</v>
+        <v>104196</v>
       </c>
       <c r="K21" s="13">
-        <v>248920</v>
+        <v>159646</v>
       </c>
       <c r="L21" s="13">
-        <v>366409</v>
+        <v>128846</v>
       </c>
       <c r="M21" s="13">
-        <v>346491</v>
+        <v>143913</v>
       </c>
       <c r="N21" s="13">
         <f t="shared" si="0"/>
-        <v>3014615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1422361</v>
+      </c>
+      <c r="P21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>93616</v>
+      </c>
+      <c r="R21" s="13">
+        <v>199098</v>
+      </c>
+      <c r="S21" s="13">
+        <v>163391</v>
+      </c>
+      <c r="T21" s="13">
+        <v>191208</v>
+      </c>
+      <c r="U21" s="13">
+        <v>215163</v>
+      </c>
+      <c r="V21" s="13">
+        <v>256782</v>
+      </c>
+      <c r="W21" s="13">
+        <v>275176</v>
+      </c>
+      <c r="X21" s="13">
+        <v>378562</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>279799</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>248920</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>366409</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>346491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D22">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E22">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F22">
+        <v>183</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+      <c r="H22">
         <v>218</v>
       </c>
-      <c r="G22">
-        <v>243</v>
-      </c>
-      <c r="H22">
-        <v>265</v>
-      </c>
       <c r="I22">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="J22">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="K22">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L22">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N22" s="13">
         <f t="shared" si="0"/>
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1558</v>
+      </c>
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22">
+        <v>54</v>
+      </c>
+      <c r="R22">
+        <v>79</v>
+      </c>
+      <c r="S22">
+        <v>102</v>
+      </c>
+      <c r="T22">
+        <v>140</v>
+      </c>
+      <c r="U22">
+        <v>218</v>
+      </c>
+      <c r="V22">
+        <v>243</v>
+      </c>
+      <c r="W22">
+        <v>265</v>
+      </c>
+      <c r="X22">
+        <v>230</v>
+      </c>
+      <c r="Y22">
+        <v>191</v>
+      </c>
+      <c r="Z22">
+        <v>114</v>
+      </c>
+      <c r="AA22">
+        <v>78</v>
+      </c>
+      <c r="AB22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3117,13 +4472,52 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="P23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3131,12 +4525,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3144,7 +4538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3152,7 +4546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3160,7 +4554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3168,7 +4562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>5</v>
       </c>
@@ -3176,7 +4570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6</v>
       </c>
@@ -3184,7 +4578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>7</v>
       </c>
@@ -3192,7 +4586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="391.5">
+    <row r="38" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>8</v>
       </c>
@@ -3200,7 +4594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>9</v>
       </c>
@@ -3208,7 +4602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3216,7 +4610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>11</v>
       </c>
@@ -3224,12 +4618,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3241,49 +4635,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769CB1CE-806D-492D-9F4E-951CEBCE4905}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:N23"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="13" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.1328125" customWidth="1"/>
+    <col min="2" max="13" width="11.265625" customWidth="1"/>
+    <col min="14" max="14" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -3291,143 +4686,254 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="15">
+        <v>43101</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43132</v>
+      </c>
+      <c r="D11" s="15">
+        <v>43160</v>
+      </c>
+      <c r="E11" s="15">
+        <v>43191</v>
+      </c>
+      <c r="F11" s="15">
+        <v>43221</v>
+      </c>
+      <c r="G11" s="15">
+        <v>43252</v>
+      </c>
+      <c r="H11" s="15">
+        <v>43282</v>
+      </c>
+      <c r="I11" s="15">
+        <v>43313</v>
+      </c>
+      <c r="J11" s="15">
+        <v>43344</v>
+      </c>
+      <c r="K11" s="15">
+        <v>43374</v>
+      </c>
+      <c r="L11" s="15">
+        <v>43405</v>
+      </c>
+      <c r="M11" s="15">
+        <v>43435</v>
+      </c>
+      <c r="P11" s="12">
         <v>44216</v>
       </c>
-      <c r="C11" s="12">
+      <c r="Q11" s="12">
         <v>44247</v>
       </c>
-      <c r="D11" s="12">
+      <c r="R11" s="12">
         <v>44275</v>
       </c>
-      <c r="E11" s="12">
+      <c r="S11" s="12">
         <v>44306</v>
       </c>
-      <c r="F11" s="12">
+      <c r="T11" s="12">
         <v>44336</v>
       </c>
-      <c r="G11" s="12">
+      <c r="U11" s="12">
         <v>44367</v>
       </c>
-      <c r="H11" s="12">
+      <c r="V11" s="12">
         <v>44397</v>
       </c>
-      <c r="I11" s="12">
+      <c r="W11" s="12">
         <v>44428</v>
       </c>
-      <c r="J11" s="12">
+      <c r="X11" s="12">
         <v>44459</v>
       </c>
-      <c r="K11" s="12">
+      <c r="Y11" s="12">
         <v>44489</v>
       </c>
-      <c r="L11" s="12">
+      <c r="Z11" s="12">
         <v>44520</v>
       </c>
-      <c r="M11" s="12">
+      <c r="AA11" s="12">
         <v>44550</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="13">
-        <v>21661882</v>
+        <v>23064296</v>
       </c>
       <c r="C13" s="13">
-        <v>20780618</v>
+        <v>19520542</v>
       </c>
       <c r="D13" s="13">
-        <v>18794600</v>
+        <v>19402289</v>
       </c>
       <c r="E13" s="13">
-        <v>15482044</v>
+        <v>17671030</v>
       </c>
       <c r="F13" s="13">
-        <v>14679815</v>
+        <v>15430974</v>
       </c>
       <c r="G13" s="13">
-        <v>14766351</v>
+        <v>15100562</v>
       </c>
       <c r="H13" s="13">
-        <v>16352167</v>
+        <v>16465017</v>
       </c>
       <c r="I13" s="13">
-        <v>15496957</v>
+        <v>16212264</v>
       </c>
       <c r="J13" s="13">
-        <v>14534385</v>
+        <v>14777143</v>
       </c>
       <c r="K13" s="13">
-        <v>16268753</v>
+        <v>15847602</v>
       </c>
       <c r="L13" s="13">
-        <v>17115756</v>
+        <v>19026585</v>
       </c>
       <c r="M13" s="13">
-        <v>21081326</v>
+        <v>21344151</v>
       </c>
       <c r="N13" s="13">
         <f>SUM(B13:M13)</f>
-        <v>207014654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>213862455</v>
+      </c>
+      <c r="P13" s="13">
+        <v>21661882</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>20780618</v>
+      </c>
+      <c r="R13" s="13">
+        <v>18794600</v>
+      </c>
+      <c r="S13" s="13">
+        <v>15482044</v>
+      </c>
+      <c r="T13" s="13">
+        <v>14679815</v>
+      </c>
+      <c r="U13" s="13">
+        <v>14766351</v>
+      </c>
+      <c r="V13" s="13">
+        <v>16352167</v>
+      </c>
+      <c r="W13" s="13">
+        <v>15496957</v>
+      </c>
+      <c r="X13" s="13">
+        <v>14534385</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>16268753</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>17115756</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>21081326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="13">
-        <v>20853994</v>
+        <v>21768608</v>
       </c>
       <c r="C14" s="13">
-        <v>19645004</v>
+        <v>18334708</v>
       </c>
       <c r="D14" s="13">
-        <v>17646198</v>
+        <v>18369200</v>
       </c>
       <c r="E14" s="13">
-        <v>14295533</v>
+        <v>16596715</v>
       </c>
       <c r="F14" s="13">
-        <v>13642758</v>
+        <v>14322901</v>
       </c>
       <c r="G14" s="13">
-        <v>13943100</v>
+        <v>14224356</v>
       </c>
       <c r="H14" s="13">
-        <v>15634267</v>
+        <v>15516223</v>
       </c>
       <c r="I14" s="13">
-        <v>14528763</v>
+        <v>15473579</v>
       </c>
       <c r="J14" s="13">
-        <v>13353412</v>
+        <v>13805134</v>
       </c>
       <c r="K14" s="13">
-        <v>15056894</v>
+        <v>14709225</v>
       </c>
       <c r="L14" s="13">
-        <v>15737568</v>
+        <v>17742181</v>
       </c>
       <c r="M14" s="13">
-        <v>19813048</v>
+        <v>20144663</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" ref="N14:N23" si="0">SUM(B14:M14)</f>
-        <v>194150539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>201007493</v>
+      </c>
+      <c r="P14" s="13">
+        <v>20853994</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>19645004</v>
+      </c>
+      <c r="R14" s="13">
+        <v>17646198</v>
+      </c>
+      <c r="S14" s="13">
+        <v>14295533</v>
+      </c>
+      <c r="T14" s="13">
+        <v>13642758</v>
+      </c>
+      <c r="U14" s="13">
+        <v>13943100</v>
+      </c>
+      <c r="V14" s="13">
+        <v>15634267</v>
+      </c>
+      <c r="W14" s="13">
+        <v>14528763</v>
+      </c>
+      <c r="X14" s="13">
+        <v>13353412</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>15056894</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>15737568</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>19813048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3471,8 +4977,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3516,8 +5058,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3561,8 +5139,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3606,53 +5220,125 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="13">
-        <v>182071</v>
+        <v>220870</v>
       </c>
       <c r="C19" s="13">
-        <v>174362</v>
+        <v>202808</v>
       </c>
       <c r="D19" s="13">
-        <v>176288</v>
+        <v>210348</v>
       </c>
       <c r="E19" s="13">
-        <v>157980</v>
+        <v>196843</v>
       </c>
       <c r="F19" s="13">
-        <v>160741</v>
+        <v>163272</v>
       </c>
       <c r="G19" s="13">
-        <v>139911</v>
+        <v>164119</v>
       </c>
       <c r="H19" s="13">
-        <v>185252</v>
+        <v>192284</v>
       </c>
       <c r="I19" s="13">
-        <v>175701</v>
+        <v>184683</v>
       </c>
       <c r="J19" s="13">
-        <v>174176</v>
+        <v>144488</v>
       </c>
       <c r="K19" s="13">
-        <v>147839</v>
+        <v>136893</v>
       </c>
       <c r="L19" s="13">
-        <v>168090</v>
+        <v>196809</v>
       </c>
       <c r="M19" s="13">
-        <v>183292</v>
+        <v>198785</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="0"/>
-        <v>2025703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>2212202</v>
+      </c>
+      <c r="P19" s="13">
+        <v>182071</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>174362</v>
+      </c>
+      <c r="R19" s="13">
+        <v>176288</v>
+      </c>
+      <c r="S19" s="13">
+        <v>157980</v>
+      </c>
+      <c r="T19" s="13">
+        <v>160741</v>
+      </c>
+      <c r="U19" s="13">
+        <v>139911</v>
+      </c>
+      <c r="V19" s="13">
+        <v>185252</v>
+      </c>
+      <c r="W19" s="13">
+        <v>175701</v>
+      </c>
+      <c r="X19" s="13">
+        <v>174176</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>147839</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>168090</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>183292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3696,98 +5382,206 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="13">
-        <v>625776</v>
+        <v>1074755</v>
       </c>
       <c r="C21" s="13">
-        <v>961173</v>
+        <v>982936</v>
       </c>
       <c r="D21" s="13">
-        <v>972006</v>
+        <v>822628</v>
       </c>
       <c r="E21" s="13">
-        <v>1028387</v>
+        <v>877338</v>
       </c>
       <c r="F21" s="13">
-        <v>876151</v>
+        <v>944614</v>
       </c>
       <c r="G21" s="13">
-        <v>683146</v>
+        <v>711900</v>
       </c>
       <c r="H21" s="13">
-        <v>532464</v>
+        <v>756313</v>
       </c>
       <c r="I21" s="13">
-        <v>792327</v>
+        <v>553838</v>
       </c>
       <c r="J21" s="13">
-        <v>1006658</v>
+        <v>827354</v>
       </c>
       <c r="K21" s="13">
-        <v>1063936</v>
+        <v>1001375</v>
       </c>
       <c r="L21" s="13">
-        <v>1210020</v>
+        <v>1087535</v>
       </c>
       <c r="M21" s="13">
-        <v>1084941</v>
+        <v>1000661</v>
       </c>
       <c r="N21" s="13">
         <f t="shared" si="0"/>
-        <v>10836985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>10641247</v>
+      </c>
+      <c r="P21" s="13">
+        <v>625776</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>961173</v>
+      </c>
+      <c r="R21" s="13">
+        <v>972006</v>
+      </c>
+      <c r="S21" s="13">
+        <v>1028387</v>
+      </c>
+      <c r="T21" s="13">
+        <v>876151</v>
+      </c>
+      <c r="U21" s="13">
+        <v>683146</v>
+      </c>
+      <c r="V21" s="13">
+        <v>532464</v>
+      </c>
+      <c r="W21" s="13">
+        <v>792327</v>
+      </c>
+      <c r="X21" s="13">
+        <v>1006658</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>1063936</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>1210020</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>1084941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D22">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E22">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F22">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="G22">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H22">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="I22">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J22">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="K22">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="L22">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N22" s="13">
         <f t="shared" si="0"/>
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1513</v>
+      </c>
+      <c r="P22">
+        <v>41</v>
+      </c>
+      <c r="Q22">
+        <v>79</v>
+      </c>
+      <c r="R22">
+        <v>108</v>
+      </c>
+      <c r="S22">
+        <v>144</v>
+      </c>
+      <c r="T22">
+        <v>165</v>
+      </c>
+      <c r="U22">
+        <v>194</v>
+      </c>
+      <c r="V22">
+        <v>184</v>
+      </c>
+      <c r="W22">
+        <v>166</v>
+      </c>
+      <c r="X22">
+        <v>139</v>
+      </c>
+      <c r="Y22">
+        <v>84</v>
+      </c>
+      <c r="Z22">
+        <v>78</v>
+      </c>
+      <c r="AA22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3831,13 +5625,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3845,12 +5675,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3858,7 +5688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3866,7 +5696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3874,7 +5704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3882,7 +5712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>5</v>
       </c>
@@ -3890,7 +5720,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6</v>
       </c>
@@ -3898,7 +5728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>7</v>
       </c>
@@ -3906,7 +5736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="391.5">
+    <row r="38" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>8</v>
       </c>
@@ -3914,7 +5744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>9</v>
       </c>
@@ -3922,7 +5752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3930,7 +5760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>11</v>
       </c>
@@ -3938,12 +5768,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3957,17 +5787,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF0C66B-1036-4A66-A452-752BD25BAA5D}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
@@ -3989,7 +5819,7 @@
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="21">
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
@@ -4011,7 +5841,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="21">
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="10" t="s">
         <v>56</v>
       </c>
@@ -4033,7 +5863,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="21">
+    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
@@ -4055,7 +5885,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="18.600000000000001">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
         <v>58</v>
       </c>
@@ -4077,7 +5907,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -4133,7 +5963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
@@ -4189,7 +6019,7 @@
         <v>83287.27</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>78</v>
       </c>
@@ -4245,7 +6075,7 @@
         <v>14278.05</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>79</v>
       </c>
@@ -4301,7 +6131,7 @@
         <v>2337.0500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
@@ -4357,7 +6187,7 @@
         <v>3202.15</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>81</v>
       </c>
@@ -4413,7 +6243,7 @@
         <v>12513</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>82</v>
       </c>
@@ -4469,7 +6299,7 @@
         <v>7976.8</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>83</v>
       </c>
@@ -4525,7 +6355,7 @@
         <v>26234.32</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>84</v>
       </c>
@@ -4581,7 +6411,7 @@
         <v>3134.53</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18.600000000000001">
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
@@ -4603,7 +6433,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
@@ -4659,7 +6489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>77</v>
       </c>
@@ -4715,7 +6545,7 @@
         <v>41111.35</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>78</v>
       </c>
@@ -4771,7 +6601,7 @@
         <v>4329.97</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
@@ -4827,7 +6657,7 @@
         <v>325.79000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>80</v>
       </c>
@@ -4883,7 +6713,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>81</v>
       </c>
@@ -4939,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>82</v>
       </c>
@@ -4995,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>83</v>
       </c>
@@ -5051,7 +6881,7 @@
         <v>649.13</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>84</v>
       </c>
@@ -5107,7 +6937,7 @@
         <v>311.04000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18.600000000000001">
+    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -5129,7 +6959,7 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
         <v>59</v>
       </c>
@@ -5185,7 +7015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
         <v>77</v>
       </c>
@@ -5241,7 +7071,7 @@
         <v>9170.9</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>78</v>
       </c>
@@ -5297,7 +7127,7 @@
         <v>5536.45</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>79</v>
       </c>
@@ -5353,7 +7183,7 @@
         <v>465.4</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>80</v>
       </c>
@@ -5409,7 +7239,7 @@
         <v>2815.46</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
         <v>81</v>
       </c>
@@ -5465,7 +7295,7 @@
         <v>11808</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
         <v>82</v>
       </c>
@@ -5521,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>83</v>
       </c>
@@ -5577,7 +7407,7 @@
         <v>10903.63</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>84</v>
       </c>
@@ -5633,7 +7463,7 @@
         <v>250.45</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="18.600000000000001">
+    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11" t="s">
         <v>51</v>
       </c>
@@ -5655,7 +7485,7 @@
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>59</v>
       </c>
@@ -5711,7 +7541,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
         <v>77</v>
       </c>
@@ -5767,7 +7597,7 @@
         <v>894.35</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
@@ -5823,7 +7653,7 @@
         <v>1745.76</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
@@ -5879,7 +7709,7 @@
         <v>317.61</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>80</v>
       </c>
@@ -5935,7 +7765,7 @@
         <v>236.47</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
@@ -5991,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
         <v>82</v>
       </c>
@@ -6047,7 +7877,7 @@
         <v>4993.8</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>83</v>
       </c>
@@ -6103,7 +7933,7 @@
         <v>10238.15</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>84</v>
       </c>
@@ -6159,7 +7989,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="18.600000000000001">
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>52</v>
       </c>
@@ -6181,7 +8011,7 @@
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
         <v>59</v>
       </c>
@@ -6237,7 +8067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
         <v>77</v>
       </c>
@@ -6293,7 +8123,7 @@
         <v>16017.47</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>78</v>
       </c>
@@ -6349,7 +8179,7 @@
         <v>732.25</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -6405,7 +8235,7 @@
         <v>927.79</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>80</v>
       </c>
@@ -6461,7 +8291,7 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>81</v>
       </c>
@@ -6517,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
         <v>82</v>
       </c>
@@ -6573,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>83</v>
       </c>
@@ -6629,7 +8459,7 @@
         <v>520.33000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
         <v>84</v>
       </c>
@@ -6685,8 +8515,8 @@
         <v>122.46</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="18.95" customHeight="1"/>
-    <row r="62" spans="1:18" ht="18.600000000000001">
+    <row r="61" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -6706,7 +8536,7 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -6726,7 +8556,7 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -6746,7 +8576,7 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -6766,7 +8596,7 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -6786,7 +8616,7 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -6806,7 +8636,7 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -6826,7 +8656,7 @@
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -6846,7 +8676,7 @@
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -6866,7 +8696,7 @@
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -6886,7 +8716,7 @@
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
     </row>
-    <row r="73" spans="1:18" ht="18.600000000000001">
+    <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -6906,7 +8736,7 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -6926,7 +8756,7 @@
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -6946,7 +8776,7 @@
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -6966,7 +8796,7 @@
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -6986,7 +8816,7 @@
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -7006,7 +8836,7 @@
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -7026,7 +8856,7 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -7046,7 +8876,7 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -7066,7 +8896,7 @@
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -7086,7 +8916,7 @@
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
     </row>
-    <row r="84" spans="1:18" ht="18.600000000000001">
+    <row r="84" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -7106,7 +8936,7 @@
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -7126,7 +8956,7 @@
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -7146,7 +8976,7 @@
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -7166,7 +8996,7 @@
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -7186,7 +9016,7 @@
       <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -7206,7 +9036,7 @@
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -7226,7 +9056,7 @@
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -7246,7 +9076,7 @@
       <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -7266,7 +9096,7 @@
       <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -7286,7 +9116,7 @@
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
     </row>
-    <row r="95" spans="1:18" ht="18.600000000000001">
+    <row r="95" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="11"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -7306,7 +9136,7 @@
       <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -7326,7 +9156,7 @@
       <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -7346,7 +9176,7 @@
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -7366,7 +9196,7 @@
       <c r="Q98" s="9"/>
       <c r="R98" s="9"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -7386,7 +9216,7 @@
       <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -7406,7 +9236,7 @@
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -7426,7 +9256,7 @@
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -7446,7 +9276,7 @@
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -7466,7 +9296,7 @@
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -7495,20 +9325,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -7516,7 +9346,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>86</v>
       </c>
@@ -7527,7 +9357,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -7538,7 +9368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -7549,7 +9379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -7560,7 +9390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -7571,7 +9401,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -7579,7 +9409,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -7596,7 +9426,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -7604,19 +9434,19 @@
         <v>95</v>
       </c>
       <c r="C14" s="17">
-        <f>Alberta!$I$19/(('CER Capacity'!$Q$48+'CER Capacity'!$Q$49+'CER Capacity'!$Q$47+'CER Capacity'!$Q$44)*31*24)</f>
-        <v>0.51628471679313825</v>
+        <f>Alberta!$I$19/(('CER Capacity'!$O$48+'CER Capacity'!$O$49+'CER Capacity'!$O$47+'CER Capacity'!$O$44)*31*24)</f>
+        <v>0.6287910911225526</v>
       </c>
       <c r="D14" s="17">
-        <f>Alberta!$M$19/(('CER Capacity'!$Q$48+'CER Capacity'!$Q$49+'CER Capacity'!$Q$47+'CER Capacity'!$Q$44)*31*24)</f>
-        <v>0.57640428523832932</v>
+        <f>Alberta!$M$19/(('CER Capacity'!$O$48+'CER Capacity'!$O$49+'CER Capacity'!$O$47+'CER Capacity'!$O$44)*31*24)</f>
+        <v>0.66170129061873917</v>
       </c>
       <c r="E14" s="19">
         <f>Alberta!N19</f>
-        <v>67670804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>72958398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -7625,18 +9455,18 @@
       </c>
       <c r="C15" s="17">
         <f>Alberta!$I$19/(('CER Capacity'!$Q$48+'CER Capacity'!$Q$49+'CER Capacity'!$Q$47+'CER Capacity'!$Q$44)*31*24)</f>
-        <v>0.51628471679313825</v>
+        <v>0.60941704244809125</v>
       </c>
       <c r="D15" s="17">
-        <f>Alberta!$M$19/(('CER Capacity'!$Q$48+'CER Capacity'!$Q$49+'CER Capacity'!$Q$47+'CER Capacity'!$Q$44)*31*24)</f>
-        <v>0.57640428523832932</v>
+        <f>Alberta!$M$19/(('CER Capacity'!$O$48+'CER Capacity'!$O$49+'CER Capacity'!$O$47+'CER Capacity'!$O$44)*31*24)</f>
+        <v>0.66170129061873917</v>
       </c>
       <c r="E15" s="19">
         <f>E14</f>
-        <v>67670804</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>72958398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -7644,19 +9474,19 @@
         <v>97</v>
       </c>
       <c r="C16" s="17">
-        <f>Alberta!I14/'CER Capacity'!Q42/31/24</f>
-        <v>0.4366509948055024</v>
+        <f>Alberta!I14/'CER Capacity'!O42/31/24</f>
+        <v>0.3660224191173862</v>
       </c>
       <c r="D16" s="18">
-        <f>Alberta!M14/'CER Capacity'!Q42/31/24</f>
-        <v>0.20353130855532131</v>
+        <f>Alberta!M14/'CER Capacity'!O42/31/24</f>
+        <v>0.18685403167194772</v>
       </c>
       <c r="E16" s="19">
         <f>Alberta!N14</f>
-        <v>2434336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1997591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -7664,19 +9494,19 @@
         <v>98</v>
       </c>
       <c r="C17" s="17">
-        <f>Alberta!I21/'CER Capacity'!Q43/31/24</f>
-        <v>0.23851567743118074</v>
+        <f>Alberta!I21/'CER Capacity'!O43/31/24</f>
+        <v>0.23401553332236627</v>
       </c>
       <c r="D17" s="18">
-        <f>Alberta!M21/'CER Capacity'!Q43/31/24</f>
-        <v>0.52751157212362387</v>
+        <f>Alberta!M21/'CER Capacity'!O43/31/24</f>
+        <v>0.48648938615929715</v>
       </c>
       <c r="E17" s="19">
         <f>Alberta!N21</f>
-        <v>5285665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>4119223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7684,19 +9514,19 @@
         <v>99</v>
       </c>
       <c r="C18" s="17">
-        <f>Alberta!I22/'CER Capacity'!Q45/31/24</f>
-        <v>0.12729567091526103</v>
+        <f>Alberta!I22/'CER Capacity'!O45/31/24</f>
+        <v>0.10219771147887056</v>
       </c>
       <c r="D18" s="18">
-        <f>Alberta!M22/'CER Capacity'!Q45/31/24</f>
-        <v>5.9004160143408486E-2</v>
+        <f>Alberta!M22/'CER Capacity'!O45/31/24</f>
+        <v>1.8169301031043337E-2</v>
       </c>
       <c r="E18" s="19">
         <f>Alberta!N22</f>
-        <v>26344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>25547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -7704,19 +9534,19 @@
         <v>96</v>
       </c>
       <c r="C19" s="18">
-        <f>Ontario!I19/('CER Capacity'!Q35+'CER Capacity'!Q36+'CER Capacity'!Q37+'CER Capacity'!Q32)/31/24</f>
-        <v>0.21509427290640695</v>
+        <f>Ontario!I19/('CER Capacity'!O35+'CER Capacity'!O36+'CER Capacity'!O37+'CER Capacity'!O32)/31/24</f>
+        <v>0.24957420387781484</v>
       </c>
       <c r="D19" s="18">
-        <f>Ontario!M19/('CER Capacity'!Q35+'CER Capacity'!Q36+'CER Capacity'!Q37+'CER Capacity'!Q32)/31/24</f>
-        <v>0.15286111484048054</v>
+        <f>Ontario!M19/('CER Capacity'!O35+'CER Capacity'!O36+'CER Capacity'!O37+'CER Capacity'!O32)/31/24</f>
+        <v>0.1308429745957212</v>
       </c>
       <c r="E19" s="19">
         <f>Ontario!N19</f>
-        <v>13191727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>13353087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -7724,19 +9554,19 @@
         <v>100</v>
       </c>
       <c r="C20" s="18">
-        <f>Ontario!I16/'CER Capacity'!Q34/31/24</f>
-        <v>0.87802134783780639</v>
+        <f>Ontario!I16/'CER Capacity'!O34/31/24</f>
+        <v>0.85122873273530919</v>
       </c>
       <c r="D20" s="18">
-        <f>Ontario!M16/'CER Capacity'!Q34/31/24</f>
-        <v>0.77798801887548452</v>
+        <f>Ontario!M16/'CER Capacity'!O34/31/24</f>
+        <v>0.831123618888574</v>
       </c>
       <c r="E20" s="19">
         <f>Ontario!N16</f>
-        <v>87856772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>90155270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -7744,19 +9574,19 @@
         <v>97</v>
       </c>
       <c r="C21" s="18">
-        <f>Ontario!I14/'CER Capacity'!Q30/31/24</f>
-        <v>0.41351225832715149</v>
+        <f>Ontario!I14/'CER Capacity'!O30/31/24</f>
+        <v>0.39254668040843627</v>
       </c>
       <c r="D21" s="18">
-        <f>Ontario!M14/'CER Capacity'!Q30/31/24</f>
-        <v>0.50547286842428318</v>
+        <f>Ontario!M14/'CER Capacity'!O30/31/24</f>
+        <v>0.50903716768374307</v>
       </c>
       <c r="E21" s="19">
         <f>Ontario!N14</f>
-        <v>39022698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>37687913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7764,19 +9594,19 @@
         <v>98</v>
       </c>
       <c r="C22" s="17">
-        <f>Ontario!I21/'CER Capacity'!Q31/31/24</f>
-        <v>0.15066585098573479</v>
+        <f>Ontario!I21/'CER Capacity'!O31/31/24</f>
+        <v>0.15120183364104775</v>
       </c>
       <c r="D22" s="17">
-        <f>Ontario!M21/'CER Capacity'!Q31/31/24</f>
-        <v>0.3609467239106956</v>
+        <f>Ontario!M21/'CER Capacity'!O31/31/24</f>
+        <v>0.30835275942664614</v>
       </c>
       <c r="E22" s="19">
         <f>Ontario!N21</f>
-        <v>12698295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>11253753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -7784,19 +9614,19 @@
         <v>99</v>
       </c>
       <c r="C23" s="17">
-        <f>Ontario!I22/'CER Capacity'!Q33/31/24</f>
-        <v>0.13976258506316391</v>
+        <f>Ontario!I22/'CER Capacity'!O33/31/24</f>
+        <v>0.15725060257444842</v>
       </c>
       <c r="D23" s="17">
-        <f>Ontario!M22/'CER Capacity'!Q33/31/24</f>
-        <v>3.4502755866628564E-2</v>
+        <f>Ontario!M22/'CER Capacity'!O33/31/24</f>
+        <v>3.0499301981174717E-2</v>
       </c>
       <c r="E23" s="19">
         <f>Ontario!N22</f>
-        <v>2538661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>2176592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -7804,19 +9634,19 @@
         <v>96</v>
       </c>
       <c r="C24" s="17">
-        <f>BC!I19/('CER Capacity'!Q59+'CER Capacity'!Q60+'CER Capacity'!Q55)/31/24</f>
-        <v>0.3988724047838228</v>
+        <f>BC!I19/('CER Capacity'!O59+'CER Capacity'!O60+'CER Capacity'!O55)/31/24</f>
+        <v>0.37415548971224522</v>
       </c>
       <c r="D24" s="17">
-        <f>BC!M19/('CER Capacity'!Q59+'CER Capacity'!Q60+'CER Capacity'!Q55)/31/24</f>
-        <v>0.44651249993667158</v>
+        <f>BC!M19/('CER Capacity'!O59+'CER Capacity'!O60+'CER Capacity'!O55)/31/24</f>
+        <v>0.45077861106581135</v>
       </c>
       <c r="E24" s="19">
         <f>BC!N19</f>
-        <v>5741164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>5599378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -7824,19 +9654,19 @@
         <v>97</v>
       </c>
       <c r="C25" s="17">
-        <f>BC!I14/'CER Capacity'!Q53/31/24</f>
-        <v>0.51159219492270636</v>
+        <f>BC!I14/'CER Capacity'!O53/31/24</f>
+        <v>0.4349329189165187</v>
       </c>
       <c r="D25" s="17">
-        <f>BC!M14/'CER Capacity'!Q53/31/24</f>
-        <v>0.56865405045543327</v>
+        <f>BC!M14/'CER Capacity'!O53/31/24</f>
+        <v>0.45194388824256726</v>
       </c>
       <c r="E25" s="19">
         <f>BC!N14</f>
-        <v>63863308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>60434039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -7844,19 +9674,19 @@
         <v>98</v>
       </c>
       <c r="C26" s="17">
-        <f>BC!I21/'CER Capacity'!Q54/31/24</f>
-        <v>0.69487182311112095</v>
+        <f>BC!I21/'CER Capacity'!O54/31/24</f>
+        <v>0.23435998729123364</v>
       </c>
       <c r="D26" s="17">
-        <f>BC!M21/'CER Capacity'!Q54/31/24</f>
-        <v>0.63600370048128285</v>
+        <f>BC!M21/'CER Capacity'!O54/31/24</f>
+        <v>0.27544528531563289</v>
       </c>
       <c r="E26" s="19">
         <f>BC!N21</f>
-        <v>3014615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>1422361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -7864,19 +9694,19 @@
         <v>99</v>
       </c>
       <c r="C27" s="17">
-        <f>BC!I22/'CER Capacity'!Q56/31/24</f>
-        <v>1.327920038428851E-2</v>
+        <f>BC!I22/'CER Capacity'!O56/31/24</f>
+        <v>7.7858641489640709E-2</v>
       </c>
       <c r="D27" s="17">
-        <f>BC!M22/'CER Capacity'!Q56/31/24</f>
-        <v>3.2331966153050285E-3</v>
+        <f>BC!M22/'CER Capacity'!O56/31/24</f>
+        <v>1.1064122738001574E-2</v>
       </c>
       <c r="E27" s="19">
         <f>BC!N22</f>
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -7884,19 +9714,19 @@
         <v>96</v>
       </c>
       <c r="C28" s="17">
-        <f>Quebec!I19/('CER Capacity'!Q21+'CER Capacity'!Q25+'CER Capacity'!Q26)/31/24</f>
-        <v>0.19095605118784201</v>
+        <f>Quebec!I19/('CER Capacity'!O21+'CER Capacity'!O25+'CER Capacity'!O26)/31/24</f>
+        <v>0.20233763884356781</v>
       </c>
       <c r="D28" s="17">
-        <f>Quebec!M19/('CER Capacity'!Q21+'CER Capacity'!Q25+'CER Capacity'!Q26)/31/24</f>
-        <v>0.19920613163454928</v>
+        <f>Quebec!M19/('CER Capacity'!O21+'CER Capacity'!O25+'CER Capacity'!O26)/31/24</f>
+        <v>0.21778770941298675</v>
       </c>
       <c r="E28" s="19">
         <f>Quebec!N19</f>
-        <v>2025703</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>2212202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -7904,19 +9734,19 @@
         <v>97</v>
       </c>
       <c r="C29" s="17">
-        <f>Quebec!I14/'CER Capacity'!Q19/31/24</f>
-        <v>0.47784808915071975</v>
+        <f>Quebec!I14/'CER Capacity'!O19/31/24</f>
+        <v>0.50908733442975973</v>
       </c>
       <c r="D29" s="17">
-        <f>Quebec!M14/'CER Capacity'!Q19/31/24</f>
-        <v>0.6516471586088568</v>
+        <f>Quebec!M14/'CER Capacity'!O19/31/24</f>
+        <v>0.66276798597504871</v>
       </c>
       <c r="E29" s="19">
         <f>Quebec!N14</f>
-        <v>194150539</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>201007493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -7924,19 +9754,19 @@
         <v>98</v>
       </c>
       <c r="C30" s="17">
-        <f>Quebec!I21/'CER Capacity'!Q20/31/24</f>
-        <v>0.2459498899902979</v>
+        <f>Quebec!I21/'CER Capacity'!O20/31/24</f>
+        <v>0.19187845920514246</v>
       </c>
       <c r="D30" s="17">
-        <f>Quebec!M21/'CER Capacity'!Q20/31/24</f>
-        <v>0.33678155559000739</v>
+        <f>Quebec!M21/'CER Capacity'!O20/31/24</f>
+        <v>0.34668132353987463</v>
       </c>
       <c r="E30" s="19">
         <f>Quebec!N21</f>
-        <v>10836985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>10641247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -7944,16 +9774,16 @@
         <v>99</v>
       </c>
       <c r="C31" s="17">
-        <f>Quebec!I22/'CER Capacity'!Q22/31/24</f>
-        <v>1.0991048254674507E-2</v>
+        <f>Quebec!I22/'CER Capacity'!O22/31/24</f>
+        <v>0.73476702508960579</v>
       </c>
       <c r="D31" s="17">
-        <f>Quebec!M22/'CER Capacity'!Q22/31/24</f>
-        <v>2.9795010328936907E-3</v>
+        <f>Quebec!M22/'CER Capacity'!O22/31/24</f>
+        <v>0.18817204301075272</v>
       </c>
       <c r="E31" s="19">
         <f>Quebec!N22</f>
-        <v>1427</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
@@ -7969,19 +9799,19 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.1">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>101</v>
       </c>
@@ -7992,7 +9822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -8003,7 +9833,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -8014,7 +9844,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -8025,59 +9855,59 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="4">
         <f t="array" ref="B5">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A5,Calculations!$C$13:$C$31),IF(Calculations!$B$13:$B$31=PTCF!A5,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A5,Calculations!$C$13:$C$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.47632595436070591</v>
+        <v>0.47867023811791642</v>
       </c>
       <c r="C5" s="4">
         <f t="array" ref="C5">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A5,Calculations!$D$13:$D$31),IF(Calculations!$B$13:$B$31=PTCF!A5,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A5,Calculations!$D$13:$D$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.611258610264244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.59805965841864694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="4" cm="1">
         <f t="array" ref="B6">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A6,Calculations!$C$13:$C$31),IF(Calculations!$B$13:$B$31=PTCF!A6,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A6,Calculations!$C$13:$C$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.24921941627528538</v>
+        <v>0.18372261067292822</v>
       </c>
       <c r="C6" s="4" cm="1">
         <f t="array" ref="C6">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A6,Calculations!$D$13:$D$31),IF(Calculations!$B$13:$B$31=PTCF!A6,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A6,Calculations!$D$13:$D$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.40642163653167523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.34825721327847176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="4" cm="1">
         <f t="array" ref="B7">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A7,Calculations!$C$13:$C$31),IF(Calculations!$B$13:$B$31=PTCF!A7,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A7,Calculations!$C$13:$C$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.13947597950790788</v>
+        <v>0.15695296809205292</v>
       </c>
       <c r="C7" s="4" cm="1">
         <f t="array" ref="C7">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A7,Calculations!$D$13:$D$31),IF(Calculations!$B$13:$B$31=PTCF!A7,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A7,Calculations!$D$13:$D$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>3.471501883883437E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3.0450909453317451E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="4" cm="1">
         <f t="array" ref="B8">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A7,Calculations!$C$13:$C$31),IF(Calculations!$B$13:$B$31=PTCF!A7,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A7,Calculations!$C$13:$C$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.13947597950790788</v>
+        <v>0.15695296809205292</v>
       </c>
       <c r="C8" s="4" cm="1">
         <f t="array" ref="C8">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A7,Calculations!$D$13:$D$31),IF(Calculations!$B$13:$B$31=PTCF!A7,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A7,Calculations!$D$13:$D$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>3.471501883883437E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3.0450909453317451E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -8090,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8103,7 +9933,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -8114,7 +9944,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -8125,7 +9955,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -8138,20 +9968,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="4" cm="1">
         <f t="array" ref="B14">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A6,Calculations!$C$13:$C$31),IF(Calculations!$B$13:$B$31=PTCF!A6,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A6,Calculations!$C$13:$C$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.24921941627528538</v>
+        <v>0.18372261067292822</v>
       </c>
       <c r="C14" s="4" cm="1">
         <f t="array" ref="C14">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A6,Calculations!$D$13:$D$31),IF(Calculations!$B$13:$B$31=PTCF!A6,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A6,Calculations!$D$13:$D$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.40642163653167523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.34825721327847176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -8162,7 +9992,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -8173,7 +10003,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -8204,13 +10034,25 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -8234,6 +10076,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8320,6 +10164,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -8454,23 +10310,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95045A36-27E4-4EF7-BE1B-41B196E8F570}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95045A36-27E4-4EF7-BE1B-41B196E8F570}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DF01836-43F9-40E5-9F44-33DFC1E804B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFAA4812-A3AB-4DC7-96BF-ABB79AD356F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFAA4812-A3AB-4DC7-96BF-ABB79AD356F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F601648-D229-44DF-B80E-8AA867842C20}"/>
 </file>
--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/PTCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{01D6FB42-3B39-4323-A21D-D79BA65E4289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{904083F7-C326-4835-82AC-18514BE2B0FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A7786B-036C-45ED-ACD2-2B1F10BCF3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4080" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14040" yWindow="2325" windowWidth="14010" windowHeight="12615" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -995,87 +995,87 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.265625" customWidth="1"/>
-    <col min="2" max="2" width="50.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.59765625" customWidth="1"/>
-    <col min="8" max="8" width="53.73046875" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.6328125" customWidth="1"/>
+    <col min="8" max="8" width="53.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1102,44 +1102,44 @@
       <selection activeCell="B11" sqref="B11:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" customWidth="1"/>
-    <col min="2" max="13" width="11.1328125" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="13" width="11.08984375" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>13137329</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>3448917</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>6834743</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>1321468</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>1459928</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>72273</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2123,12 +2123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2136,12 +2136,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" ht="406" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>11</v>
       </c>
@@ -2229,12 +2229,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2252,44 +2252,44 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.86328125" customWidth="1"/>
-    <col min="2" max="13" width="11.86328125" customWidth="1"/>
-    <col min="14" max="14" width="12.1328125" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>75454522</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>2434336</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>67670804</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>5285665</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>26344</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3323,12 +3323,12 @@
         <v>37373</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3336,12 +3336,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="342" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>11</v>
       </c>
@@ -3429,12 +3429,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3452,44 +3452,44 @@
       <selection activeCell="B11" sqref="B11:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" customWidth="1"/>
-    <col min="2" max="13" width="11.265625" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="13" width="11.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>7644951</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>6776649</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>521755</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>346491</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -4512,12 +4512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -4525,12 +4525,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>11</v>
       </c>
@@ -4618,12 +4618,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -4641,44 +4641,44 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.1328125" customWidth="1"/>
-    <col min="2" max="13" width="11.265625" customWidth="1"/>
-    <col min="14" max="14" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" customWidth="1"/>
+    <col min="2" max="13" width="11.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>21081326</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>19813048</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>183292</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>1084941</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5662,12 +5662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5675,12 +5675,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>11</v>
       </c>
@@ -5768,12 +5768,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -5792,12 +5792,12 @@
       <selection pane="topRight" activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
@@ -5841,7 +5841,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>56</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>58</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>83287.27</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>78</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>14278.05</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>79</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>2337.0500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>3202.15</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>81</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>12513</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>82</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>7976.8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>83</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>26234.32</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>84</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>3134.53</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
@@ -6433,7 +6433,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>77</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>41111.35</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>78</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>4329.97</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>325.79000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>80</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>81</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>82</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>83</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>649.13</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>84</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>311.04000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>59</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>77</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>9170.9</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>78</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>5536.45</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>79</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>465.4</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>80</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>2815.46</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>81</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>11808</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>82</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>83</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>10903.63</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>84</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>250.45</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>51</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>59</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>77</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>894.35</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>1745.76</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>317.61</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>80</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>236.47</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>82</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>4993.8</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>83</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>10238.15</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>84</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="11" t="s">
         <v>52</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>59</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>77</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>16017.47</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>78</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>732.25</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>927.79</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>80</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>81</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>82</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>83</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>520.33000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>84</v>
       </c>
@@ -8515,8 +8515,8 @@
         <v>122.46</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="11"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -8536,7 +8536,7 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -8556,7 +8556,7 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -8576,7 +8576,7 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -8596,7 +8596,7 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -8616,7 +8616,7 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -8636,7 +8636,7 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -8656,7 +8656,7 @@
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -8676,7 +8676,7 @@
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -8696,7 +8696,7 @@
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -8716,7 +8716,7 @@
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
     </row>
-    <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A73" s="11"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -8736,7 +8736,7 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -8756,7 +8756,7 @@
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -8776,7 +8776,7 @@
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -8796,7 +8796,7 @@
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -8816,7 +8816,7 @@
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -8836,7 +8836,7 @@
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -8856,7 +8856,7 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -8876,7 +8876,7 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -8896,7 +8896,7 @@
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -8916,7 +8916,7 @@
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
     </row>
-    <row r="84" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A84" s="11"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -8936,7 +8936,7 @@
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -8956,7 +8956,7 @@
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -8976,7 +8976,7 @@
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -8996,7 +8996,7 @@
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -9016,7 +9016,7 @@
       <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -9036,7 +9036,7 @@
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -9056,7 +9056,7 @@
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -9076,7 +9076,7 @@
       <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -9096,7 +9096,7 @@
       <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -9116,7 +9116,7 @@
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
     </row>
-    <row r="95" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A95" s="11"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -9136,7 +9136,7 @@
       <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -9156,7 +9156,7 @@
       <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -9176,7 +9176,7 @@
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -9196,7 +9196,7 @@
       <c r="Q98" s="9"/>
       <c r="R98" s="9"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -9216,7 +9216,7 @@
       <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -9236,7 +9236,7 @@
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -9256,7 +9256,7 @@
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -9276,7 +9276,7 @@
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -9296,7 +9296,7 @@
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -9325,20 +9325,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>86</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>72958398</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>72958398</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>1997591</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>4119223</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>25547</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>13353087</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>90155270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>37687913</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>11253753</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>2176592</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>5599378</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>60434039</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>1422361</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>2212202</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>201007493</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>10641247</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -9799,19 +9799,19 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="6" max="6" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>101</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -9855,20 +9855,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="4">
-        <f t="array" ref="B5">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A5,Calculations!$C$13:$C$31),IF(Calculations!$B$13:$B$31=PTCF!A5,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A5,Calculations!$C$13:$C$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.47867023811791642</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <f t="array" ref="C5">IFERROR(SUMPRODUCT(IF(Calculations!$B$13:$B$31=PTCF!A5,Calculations!$D$13:$D$31),IF(Calculations!$B$13:$B$31=PTCF!A5,Calculations!$E$13:$E$31))/SUMIFS(Calculations!$E$13:$E$31,Calculations!$B$13:$B$31,PTCF!A5,Calculations!$D$13:$D$31,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.59805965841864694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -9881,7 +9879,7 @@
         <v>0.34825721327847176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -9894,7 +9892,7 @@
         <v>3.0450909453317451E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -9907,7 +9905,7 @@
         <v>3.0450909453317451E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -9920,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -9933,7 +9931,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -9944,7 +9942,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -9955,7 +9953,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -9968,7 +9966,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -9981,7 +9979,7 @@
         <v>0.34825721327847176</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -9992,7 +9990,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -10003,7 +10001,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -10022,6 +10020,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -10039,15 +10046,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10311,6 +10309,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFAA4812-A3AB-4DC7-96BF-ABB79AD356F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95045A36-27E4-4EF7-BE1B-41B196E8F570}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -10328,14 +10334,22 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFAA4812-A3AB-4DC7-96BF-ABB79AD356F2}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F601648-D229-44DF-B80E-8AA867842C20}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F601648-D229-44DF-B80E-8AA867842C20}"/>
 </file>
--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -10051,8 +10051,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -10078,6 +10078,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10178,6 +10179,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -10337,5 +10343,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F601648-D229-44DF-B80E-8AA867842C20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9255572C-C93F-4FA4-A42A-3FA27F028F26}"/>
 </file>